--- a/va_facility_data_2025-02-20/Orem VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Orem%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Orem VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Orem%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R7a9eb767650a4ce6b56484981d5af917"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R88a75006d9af4d5cb1ae909addc8022f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rded0699c96df42d785f7db8dcfee751d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6a5c6b08066c4220995922c4efb826e0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rca3e00ca1ffd4883aedf99630714129b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra74734c6eb3444b184f63da61f876092"/>
   </x:sheets>
 </x:workbook>
 </file>
